--- a/candidate_pairs_crossed_over.xlsx
+++ b/candidate_pairs_crossed_over.xlsx
@@ -14,12 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Return_to_trend</t>
+  </si>
+  <si>
+    <t>Trend_adj_peak_trough</t>
+  </si>
+  <si>
+    <t>SD_moves</t>
+  </si>
+  <si>
+    <t>Num_above_trend</t>
+  </si>
+  <si>
+    <t>Num_below_trend</t>
+  </si>
+  <si>
+    <t>Num_above_200MA</t>
+  </si>
+  <si>
+    <t>Num_below_200MA</t>
+  </si>
   <si>
     <t>peaking</t>
   </si>
   <si>
     <t>troughing</t>
+  </si>
+  <si>
+    <t>AXTA US Equity_NZYMB DC Equity</t>
+  </si>
+  <si>
+    <t>AVD US Equity_ADM US Equity</t>
+  </si>
+  <si>
+    <t>AVD US Equity_BAS GR Equity</t>
+  </si>
+  <si>
+    <t>AVD US Equity_CBT US Equity</t>
+  </si>
+  <si>
+    <t>GPRE US Equity_RPM US Equity</t>
   </si>
 </sst>
 </file>
@@ -377,18 +413,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.2219186057375633</v>
+      </c>
+      <c r="C2">
+        <v>-0.02522298890486352</v>
+      </c>
+      <c r="D2">
+        <v>0.02734069110864332</v>
+      </c>
+      <c r="E2">
+        <v>1383</v>
+      </c>
+      <c r="F2">
+        <v>1224</v>
+      </c>
+      <c r="G2">
+        <v>1218</v>
+      </c>
+      <c r="H2">
+        <v>1190</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.1469592196918819</v>
+      </c>
+      <c r="C3">
+        <v>0.005199054872996545</v>
+      </c>
+      <c r="D3">
+        <v>0.01100558520850227</v>
+      </c>
+      <c r="E3">
+        <v>1552</v>
+      </c>
+      <c r="F3">
+        <v>1055</v>
+      </c>
+      <c r="G3">
+        <v>1229</v>
+      </c>
+      <c r="H3">
+        <v>1179</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.1628302867782406</v>
+      </c>
+      <c r="C4">
+        <v>-0.000396612129359486</v>
+      </c>
+      <c r="D4">
+        <v>0.02608959752425532</v>
+      </c>
+      <c r="E4">
+        <v>1332</v>
+      </c>
+      <c r="F4">
+        <v>1275</v>
+      </c>
+      <c r="G4">
+        <v>1204</v>
+      </c>
+      <c r="H4">
+        <v>1204</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.04931640560583261</v>
+      </c>
+      <c r="C5">
+        <v>0.01192889246577611</v>
+      </c>
+      <c r="D5">
+        <v>0.02800321948934355</v>
+      </c>
+      <c r="E5">
+        <v>928</v>
+      </c>
+      <c r="F5">
+        <v>413</v>
+      </c>
+      <c r="G5">
+        <v>539</v>
+      </c>
+      <c r="H5">
+        <v>603</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.1907146188879391</v>
+      </c>
+      <c r="C6">
+        <v>-0.03145507556298388</v>
+      </c>
+      <c r="D6">
+        <v>0.03725913464678146</v>
+      </c>
+      <c r="E6">
+        <v>1171</v>
+      </c>
+      <c r="F6">
+        <v>1436</v>
+      </c>
+      <c r="G6">
+        <v>880</v>
+      </c>
+      <c r="H6">
+        <v>1528</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/candidate_pairs_crossed_over.xlsx
+++ b/candidate_pairs_crossed_over.xlsx
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2219186057375633</v>
+        <v>0.06614079833792563</v>
       </c>
       <c r="C2">
-        <v>-0.02522298890486352</v>
+        <v>0.006265813580010215</v>
       </c>
       <c r="D2">
-        <v>0.02734069110864332</v>
+        <v>0.0339659356398244</v>
       </c>
       <c r="E2">
-        <v>1383</v>
+        <v>612</v>
       </c>
       <c r="F2">
-        <v>1224</v>
+        <v>692</v>
       </c>
       <c r="G2">
         <v>1218</v>
       </c>
       <c r="H2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -482,25 +482,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1469592196918819</v>
+        <v>-0.09830159397202665</v>
       </c>
       <c r="C3">
-        <v>0.005199054872996545</v>
+        <v>0.007632346204695217</v>
       </c>
       <c r="D3">
-        <v>0.01100558520850227</v>
+        <v>0.01206840221748883</v>
       </c>
       <c r="E3">
-        <v>1552</v>
+        <v>640</v>
       </c>
       <c r="F3">
-        <v>1055</v>
+        <v>664</v>
       </c>
       <c r="G3">
         <v>1229</v>
       </c>
       <c r="H3">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -511,25 +511,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1628302867782406</v>
+        <v>-0.1262673089474124</v>
       </c>
       <c r="C4">
-        <v>-0.000396612129359486</v>
+        <v>0.00308434225887888</v>
       </c>
       <c r="D4">
-        <v>0.02608959752425532</v>
+        <v>0.01971033593957043</v>
       </c>
       <c r="E4">
-        <v>1332</v>
+        <v>629</v>
       </c>
       <c r="F4">
-        <v>1275</v>
+        <v>675</v>
       </c>
       <c r="G4">
         <v>1204</v>
       </c>
       <c r="H4">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -540,19 +540,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04931640560583261</v>
+        <v>-0.03567200542317828</v>
       </c>
       <c r="C5">
-        <v>0.01192889246577611</v>
+        <v>-0.001020464846548941</v>
       </c>
       <c r="D5">
-        <v>0.02800321948934355</v>
+        <v>0.04342196045701304</v>
       </c>
       <c r="E5">
-        <v>928</v>
+        <v>548</v>
       </c>
       <c r="F5">
-        <v>413</v>
+        <v>756</v>
       </c>
       <c r="G5">
         <v>539</v>
@@ -569,25 +569,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1907146188879391</v>
+        <v>-0.04709908495982229</v>
       </c>
       <c r="C6">
-        <v>-0.03145507556298388</v>
+        <v>-0.01951975113613413</v>
       </c>
       <c r="D6">
-        <v>0.03725913464678146</v>
+        <v>0.03708238541653338</v>
       </c>
       <c r="E6">
-        <v>1171</v>
+        <v>639</v>
       </c>
       <c r="F6">
-        <v>1436</v>
+        <v>665</v>
       </c>
       <c r="G6">
         <v>880</v>
       </c>
       <c r="H6">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
